--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="501">
   <si>
     <t>Path</t>
   </si>
@@ -405,6 +405,77 @@
     <t>StructureMaps that have QuestionnaireResponses of this Questionnaire as 'source'- i.e. that can be used to create other artifacts from QuestionnaireResponses that are valid against this Questionnaire.</t>
   </si>
   <si>
+    <t>Questionnaire.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Questionnaire.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-targetStructureMap</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Questionnaire.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCanonical</t>
+  </si>
+  <si>
+    <t>https://worldhealthorganization.github.io/ddcc/StructureMap/ddcc-map-qr-bundle</t>
+  </si>
+  <si>
     <t>Questionnaire.modifierExtension</t>
   </si>
   <si>
@@ -958,22 +1029,7 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Questionnaire.item.extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Allows capture of todos, rationale for design decisions, etc.  It can also be used to capture comments about specific groups or questions within it. Allows commentary to be captured during the process of answering a questionnaire (if not already supported by the form design) as well as after the form is completed. Comments are not part of the "data" of the form. If a form prompts for a comment, this should be captured in an answer, not in this element. Formal assessments of the QuestionnareResponse would use [[[Observation]]].</t>
@@ -1680,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO76"/>
+  <dimension ref="A1:AO81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1716,7 +1772,7 @@
     <col min="25" max="25" width="59.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3263,39 +3319,35 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3343,19 +3395,19 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>45</v>
@@ -3364,7 +3416,7 @@
         <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>45</v>
@@ -3376,9 +3428,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3386,35 +3438,31 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3450,16 +3498,16 @@
         <v>45</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>130</v>
@@ -3468,25 +3516,25 @@
         <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3497,7 +3545,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3505,10 +3553,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -3517,29 +3565,27 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>45</v>
@@ -3581,42 +3627,42 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3630,26 +3676,24 @@
         <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3686,19 +3730,17 @@
         <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3713,16 +3755,16 @@
         <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>45</v>
@@ -3733,9 +3775,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3753,23 +3797,19 @@
         <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3778,7 +3818,7 @@
         <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>45</v>
@@ -3817,7 +3857,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3826,7 +3866,7 @@
         <v>52</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>64</v>
@@ -3852,41 +3892,43 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3934,28 +3976,28 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>45</v>
@@ -3967,9 +4009,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3977,32 +4019,34 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="N20" t="s" s="2">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4051,13 +4095,13 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -4069,13 +4113,13 @@
         <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4084,9 +4128,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4094,33 +4138,35 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4144,13 +4190,13 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4168,13 +4214,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4183,27 +4229,27 @@
         <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4217,7 +4263,7 @@
         <v>52</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
@@ -4226,20 +4272,18 @@
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4287,7 +4331,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4302,16 +4346,16 @@
         <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4320,9 +4364,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4333,10 +4377,10 @@
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4345,19 +4389,19 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4382,40 +4426,40 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X23" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>64</v>
@@ -4424,10 +4468,10 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>45</v>
@@ -4441,11 +4485,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4464,16 +4508,16 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4523,7 +4567,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4541,13 +4585,13 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4558,7 +4602,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4569,7 +4613,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4578,22 +4622,20 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4642,13 +4684,13 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
@@ -4660,13 +4702,13 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4675,9 +4717,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4685,31 +4727,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4735,13 +4777,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4759,13 +4801,13 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4774,16 +4816,16 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4794,7 +4836,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4814,21 +4856,23 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4876,7 +4920,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4894,13 +4938,13 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4909,9 +4953,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4925,7 +4969,7 @@
         <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>45</v>
@@ -4934,19 +4978,19 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>233</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4971,13 +5015,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4995,7 +5039,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5013,10 +5057,10 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>45</v>
@@ -5030,18 +5074,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -5053,16 +5097,16 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5088,13 +5132,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -5112,13 +5156,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -5130,13 +5174,13 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5147,7 +5191,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5167,21 +5211,23 @@
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5229,7 +5275,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5247,16 +5293,16 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5264,18 +5310,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5284,21 +5330,21 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5346,13 +5392,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5364,16 +5410,16 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5381,7 +5427,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5404,16 +5450,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5463,7 +5509,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5481,16 +5527,16 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5498,7 +5544,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5509,7 +5555,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5518,22 +5564,22 @@
         <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5582,13 +5628,13 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
@@ -5600,16 +5646,16 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5617,7 +5663,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5628,7 +5674,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5640,20 +5686,18 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5677,13 +5721,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5701,13 +5745,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5719,16 +5763,16 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5736,7 +5780,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5747,7 +5791,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5756,21 +5800,21 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5794,13 +5838,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5818,13 +5862,13 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
@@ -5836,16 +5880,16 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5853,18 +5897,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5876,18 +5920,18 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5935,34 +5979,34 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -5970,7 +6014,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5993,15 +6037,17 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>54</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6050,7 +6096,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6062,22 +6108,22 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6085,7 +6131,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6096,7 +6142,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6108,16 +6154,20 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>97</v>
+        <v>285</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6153,44 +6203,46 @@
         <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6198,11 +6250,9 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6220,21 +6270,23 @@
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>107</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6282,34 +6334,34 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6319,9 +6371,7 @@
       <c r="A40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6339,21 +6389,21 @@
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6377,13 +6427,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6401,7 +6451,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6410,10 +6460,10 @@
         <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6422,7 +6472,7 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>45</v>
@@ -6434,25 +6484,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
@@ -6461,16 +6509,16 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6520,7 +6568,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6529,19 +6577,19 @@
         <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>109</v>
+        <v>319</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>45</v>
@@ -6553,13 +6601,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6571,7 +6617,7 @@
         <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>45</v>
@@ -6580,17 +6626,15 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>314</v>
+        <v>54</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>315</v>
+        <v>124</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6639,19 +6683,19 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
@@ -6660,7 +6704,7 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>45</v>
@@ -6672,13 +6716,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6687,10 +6729,10 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>45</v>
@@ -6699,17 +6741,15 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6746,19 +6786,17 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6779,7 +6817,7 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>45</v>
@@ -6793,10 +6831,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>45</v>
@@ -6818,16 +6856,16 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6877,7 +6915,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6886,13 +6924,13 @@
         <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>45</v>
@@ -6912,11 +6950,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="C45" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6929,26 +6969,24 @@
         <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>112</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6996,7 +7034,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7005,7 +7043,7 @@
         <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>103</v>
@@ -7017,7 +7055,7 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>45</v>
@@ -7031,15 +7069,17 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>52</v>
@@ -7054,20 +7094,18 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>54</v>
+        <v>327</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7115,28 +7153,28 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>335</v>
+        <v>130</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>45</v>
@@ -7148,11 +7186,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7164,7 +7204,7 @@
         <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
@@ -7173,20 +7213,18 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>66</v>
+        <v>332</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7234,19 +7272,19 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7255,7 +7293,7 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>45</v>
@@ -7267,11 +7305,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7280,10 +7320,10 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
@@ -7292,20 +7332,18 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7329,13 +7367,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7353,7 +7391,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7362,10 +7400,10 @@
         <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7374,7 +7412,7 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>45</v>
@@ -7386,13 +7424,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="C49" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7402,7 +7442,7 @@
         <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>45</v>
@@ -7411,20 +7451,18 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>54</v>
+        <v>343</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7472,28 +7510,28 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>45</v>
@@ -7505,43 +7543,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7589,28 +7629,28 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>45</v>
@@ -7624,7 +7664,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7647,19 +7687,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7684,13 +7724,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7708,7 +7748,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>52</v>
@@ -7723,13 +7763,13 @@
         <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>45</v>
@@ -7743,7 +7783,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7754,31 +7794,31 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7827,19 +7867,19 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>380</v>
+        <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -7848,7 +7888,7 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>45</v>
@@ -7862,7 +7902,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7873,7 +7913,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7885,16 +7925,20 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>54</v>
+        <v>306</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7918,13 +7962,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7942,19 +7986,19 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7963,7 +8007,7 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>45</v>
@@ -7975,23 +8019,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>124</v>
+        <v>372</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>45</v>
@@ -8000,18 +8044,20 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8059,28 +8105,28 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>45</v>
+        <v>377</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>45</v>
@@ -8092,45 +8138,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8178,28 +8222,28 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>45</v>
@@ -8211,9 +8255,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8227,7 +8271,7 @@
         <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>45</v>
@@ -8236,18 +8280,20 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8271,13 +8317,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8295,7 +8341,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>52</v>
@@ -8310,13 +8356,13 @@
         <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>45</v>
@@ -8330,7 +8376,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8338,31 +8384,35 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8386,43 +8436,43 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="AF57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>64</v>
+        <v>398</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8431,7 +8481,7 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>45</v>
@@ -8445,7 +8495,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8453,7 +8503,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>52</v>
@@ -8468,13 +8518,13 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>396</v>
+        <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>397</v>
+        <v>124</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>398</v>
+        <v>125</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8501,13 +8551,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8525,19 +8575,19 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>395</v>
+        <v>126</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
@@ -8546,7 +8596,7 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>374</v>
+        <v>127</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>45</v>
@@ -8560,18 +8610,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8583,16 +8633,16 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>405</v>
+        <v>150</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8618,13 +8668,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8642,19 +8692,19 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>402</v>
+        <v>130</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
@@ -8663,7 +8713,7 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>374</v>
+        <v>127</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>45</v>
@@ -8675,49 +8725,49 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I60" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>410</v>
+        <v>351</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P60" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8761,28 +8811,28 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>374</v>
+        <v>95</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>45</v>
@@ -8794,9 +8844,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8804,13 +8854,13 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>45</v>
@@ -8819,26 +8869,22 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P61" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8882,28 +8928,28 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>45</v>
@@ -8915,9 +8961,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8925,13 +8971,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>45</v>
@@ -8940,20 +8986,16 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8977,13 +9019,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9001,28 +9043,28 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>45</v>
@@ -9034,9 +9076,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9044,13 +9086,13 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>45</v>
@@ -9059,17 +9101,15 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9094,13 +9134,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>418</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9118,28 +9158,28 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>45</v>
@@ -9148,12 +9188,12 @@
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9167,7 +9207,7 @@
         <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>45</v>
@@ -9176,16 +9216,16 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>437</v>
+        <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9211,13 +9251,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>45</v>
+        <v>424</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9235,7 +9275,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9244,19 +9284,19 @@
         <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>45</v>
@@ -9270,7 +9310,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9281,7 +9321,7 @@
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>53</v>
@@ -9293,22 +9333,24 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="Q65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9352,28 +9394,28 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>45</v>
+        <v>432</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>45</v>
@@ -9385,9 +9427,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9401,7 +9443,7 @@
         <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>45</v>
@@ -9410,20 +9452,26 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>301</v>
+        <v>434</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="Q66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9467,7 +9515,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>303</v>
+        <v>433</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9476,19 +9524,19 @@
         <v>52</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>45</v>
+        <v>439</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>45</v>
@@ -9500,23 +9548,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>45</v>
@@ -9525,18 +9573,20 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9584,28 +9634,28 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>306</v>
+        <v>440</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>445</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>45</v>
@@ -9617,45 +9667,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>97</v>
+        <v>448</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>332</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>333</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9703,42 +9751,42 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>334</v>
+        <v>447</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AM68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>45</v>
-      </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9746,13 +9794,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>45</v>
@@ -9761,16 +9809,16 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9796,13 +9844,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -9820,28 +9868,28 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>52</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>459</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>45</v>
@@ -9853,9 +9901,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9866,10 +9914,10 @@
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>45</v>
@@ -9878,77 +9926,75 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>186</v>
+        <v>315</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P70" t="s" s="2">
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="Q70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>64</v>
@@ -9960,7 +10006,7 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>45</v>
@@ -9972,9 +10018,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9985,10 +10031,10 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>45</v>
@@ -9997,20 +10043,16 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>461</v>
+        <v>124</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>45</v>
       </c>
@@ -10058,19 +10100,19 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>460</v>
+        <v>126</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>45</v>
@@ -10079,7 +10121,7 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>374</v>
+        <v>127</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>45</v>
@@ -10097,14 +10139,14 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>45</v>
@@ -10116,15 +10158,17 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10173,19 +10217,19 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>45</v>
@@ -10194,7 +10238,7 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>304</v>
+        <v>127</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>45</v>
@@ -10212,7 +10256,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>124</v>
+        <v>349</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10225,24 +10269,26 @@
         <v>45</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10290,7 +10336,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10311,7 +10357,7 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>304</v>
+        <v>95</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>45</v>
@@ -10329,39 +10375,37 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>97</v>
+        <v>469</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>332</v>
+        <v>470</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>333</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10385,13 +10429,13 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>45</v>
+        <v>418</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
@@ -10409,19 +10453,19 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>334</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
@@ -10430,7 +10474,7 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>95</v>
+        <v>392</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>45</v>
@@ -10442,9 +10486,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10452,13 +10496,13 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>45</v>
@@ -10467,22 +10511,24 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>470</v>
+        <v>209</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="Q75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10502,13 +10548,13 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10526,10 +10572,10 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>52</v>
@@ -10541,13 +10587,13 @@
         <v>64</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>474</v>
+        <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>45</v>
@@ -10561,7 +10607,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10584,19 +10630,19 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10645,7 +10691,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10654,19 +10700,19 @@
         <v>44</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>481</v>
+        <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>482</v>
+        <v>392</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>45</v>
@@ -10675,11 +10721,598 @@
         <v>45</v>
       </c>
       <c r="AO76" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO76">
+  <autoFilter ref="A1:AO81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10689,7 +11322,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -473,7 +473,7 @@
     <t>valueCanonical</t>
   </si>
   <si>
-    <t>https://worldhealthorganization.github.io/ddcc/StructureMap/ddcc-map-qr-bundle</t>
+    <t>http://worldhealthorganization.github.io/ddcc/StructureMap/ddcc-map-qr-bundle</t>
   </si>
   <si>
     <t>Questionnaire.modifierExtension</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -4362,7 +4362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>181</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>44</v>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1477,7 +1477,7 @@
     <t>Whether the item may repeat</t>
   </si>
   <si>
-    <t>An indication, if true, that the item may occur multiple times in the response, collecting multiple answers for questions or multiple sets of answers for groups.</t>
+    <t>An indication, if true, that a QuestionnaireResponse for this item may include multiple answers associated with a single instance of this item (for question-type items) or multiple repetitions of the item (for group-type items)</t>
   </si>
   <si>
     <t>If a question is marked as repeats=true, then multiple answers can be provided for the question in the corresponding QuestionnaireResponse.  When rendering the questionnaire, it is up to the rendering software whether to render the question text for each answer repetition (i.e. "repeat the question") or to simply allow entry/selection of multiple answers for the question (repeat the answers).  Which is most appropriate visually may depend on the type of answer as well as whether there are nested items.

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6604,7 +6604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>344</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1108,7 +1108,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sdc-2:A choiceConstraint is only valid if item has a list of choice options (with an answerValueSet, answerExpression or at least one answerOption listed). {choiceConstraint.empty() or (answerValueSet.empty().not() or answerOption.empty().not() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not)}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not implies answerOption.empty() and answerValueSet.empty()}</t>
+que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sdc-2:A choiceConstraint is only valid if item has a list of choice options (with an answerValueSet, answerExpression or at least one answerOption listed). {choiceConstraint.empty() or (answerValueSet.empty().not() or answerOption.empty().not() or extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not)}sdc-1:An item cannot have an answerExpression if answerOption or answerValueSet is already present. {extension('http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-answerExpression').empty().not() implies (answerOption.empty() and answerValueSet.empty())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=DEF]</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCQuestionnaire.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -493,6 +493,22 @@
   </si>
   <si>
     <t>Indicates the types of resources that can record answers to a Questionnaire. Open Issue: Should this extension be moved to core?</t>
+  </si>
+  <si>
+    <t>is-modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-is-modular}
+</t>
+  </si>
+  <si>
+    <t>Questionnaire is modular</t>
+  </si>
+  <si>
+    <t>If present, indicates that this is a 'modular' questionnaire that requires some degree of assembly (e.g. using the [$assemble](http://hl7.org/fhir/uv/sdc/OperationDefinition/Questionnaire-assemble) operation) prior to being presented in a Form Filler.  This might mean filling in item metadata based on information looked up from item.definitions and/or retrieving sub-questionnaires pointed to by [sub-questionnaire](https://build.fhir.org/ig/HL7/sdc/StructureDefinition-sdc-questionnaire.html/StructureDefinition-sdc-questionnaire-subQuestionnaire.html) extensions.</t>
+  </si>
+  <si>
+    <t>SDC-conformant Questionnaires **SHALL** declare this extension if they require an assembly process prior to use.</t>
   </si>
   <si>
     <t>targetStructureMap</t>
@@ -1991,7 +2007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3426,10 +3442,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>87</v>
@@ -3449,7 +3465,9 @@
       <c r="L13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>80</v>
@@ -3507,7 +3525,7 @@
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>137</v>
@@ -3528,23 +3546,25 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3553,13 +3573,13 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3610,25 +3630,25 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
@@ -3653,7 +3673,7 @@
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -3665,13 +3685,13 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3710,37 +3730,37 @@
         <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -3754,7 +3774,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3762,10 +3782,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>80</v>
@@ -3777,84 +3797,82 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="R16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AF16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -3868,7 +3886,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3876,7 +3894,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
@@ -3891,22 +3909,24 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>80</v>
@@ -3936,20 +3956,22 @@
         <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AB17" s="2"/>
-      <c r="AC17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3958,7 +3980,7 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>80</v>
@@ -3978,11 +4000,9 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4003,13 +4023,13 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4021,7 +4041,7 @@
         <v>80</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>80</v>
@@ -4048,19 +4068,17 @@
         <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4092,43 +4110,41 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4137,7 +4153,7 @@
         <v>80</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>80</v>
@@ -4176,19 +4192,19 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>80</v>
@@ -4206,44 +4222,44 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4292,39 +4308,39 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4332,13 +4348,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4347,19 +4363,19 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
@@ -4408,13 +4424,13 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>80</v>
@@ -4423,24 +4439,24 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4451,10 +4467,10 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4463,18 +4479,20 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4522,13 +4540,13 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
@@ -4537,24 +4555,24 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4568,7 +4586,7 @@
         <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4580,17 +4598,15 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4638,7 +4654,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4647,19 +4663,19 @@
         <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4668,9 +4684,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4684,7 +4700,7 @@
         <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4696,15 +4712,17 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4752,7 +4770,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4761,30 +4779,30 @@
         <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4795,30 +4813,30 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4866,13 +4884,13 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
@@ -4881,24 +4899,24 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4906,33 +4924,33 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4956,13 +4974,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4980,13 +4998,13 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
@@ -4995,13 +5013,13 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5010,9 +5028,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5020,35 +5038,33 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5072,13 +5088,13 @@
         <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>80</v>
@@ -5096,10 +5112,10 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -5111,24 +5127,24 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5139,10 +5155,10 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5151,19 +5167,19 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5188,13 +5204,13 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>80</v>
@@ -5212,13 +5228,13 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
@@ -5227,13 +5243,13 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5242,23 +5258,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5267,18 +5283,20 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>258</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5302,13 +5320,13 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
@@ -5326,13 +5344,13 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
@@ -5341,13 +5359,13 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5358,11 +5376,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5381,20 +5399,18 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5442,7 +5458,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5457,13 +5473,13 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5474,7 +5490,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5485,7 +5501,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -5497,18 +5513,20 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5556,13 +5574,13 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
@@ -5571,13 +5589,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5588,7 +5606,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5599,7 +5617,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5608,19 +5626,19 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5670,13 +5688,13 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
@@ -5685,10 +5703,10 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -5702,7 +5720,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5713,7 +5731,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5722,23 +5740,21 @@
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5786,13 +5802,13 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
@@ -5801,10 +5817,10 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5818,7 +5834,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5841,18 +5857,20 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5876,13 +5894,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5900,7 +5918,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5915,10 +5933,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5932,7 +5950,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5943,7 +5961,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -5952,19 +5970,19 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5990,13 +6008,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -6014,13 +6032,13 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>80</v>
@@ -6032,13 +6050,13 @@
         <v>307</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6046,11 +6064,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6069,18 +6087,18 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6128,7 +6146,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6143,16 +6161,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6160,11 +6178,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6183,18 +6201,18 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6242,7 +6260,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6257,16 +6275,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6274,7 +6292,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6297,20 +6315,18 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6358,7 +6374,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6373,16 +6389,16 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6390,7 +6406,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6410,22 +6426,22 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6474,7 +6490,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6489,16 +6505,16 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>209</v>
+        <v>334</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6506,7 +6522,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6517,7 +6533,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6529,17 +6545,19 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6564,13 +6582,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6588,13 +6606,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6603,24 +6621,24 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>345</v>
+        <v>214</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6628,33 +6646,33 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6678,13 +6696,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -6702,7 +6720,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6711,30 +6729,30 @@
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6742,13 +6760,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6757,15 +6775,17 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -6814,25 +6834,25 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>160</v>
+        <v>351</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>161</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6846,7 +6866,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6857,7 +6877,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>80</v>
@@ -6869,13 +6889,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6914,35 +6934,37 @@
         <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6956,11 +6978,9 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6969,7 +6989,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -6981,17 +7001,15 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -7028,19 +7046,17 @@
         <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7049,7 +7065,7 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>137</v>
@@ -7072,10 +7088,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>80</v>
@@ -7085,7 +7101,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -7097,16 +7113,16 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7156,7 +7172,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7186,12 +7202,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>357</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>80</v>
@@ -7201,10 +7217,10 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7213,16 +7229,16 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>358</v>
+        <v>145</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>146</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>147</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7272,7 +7288,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7304,7 +7320,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>362</v>
@@ -7388,7 +7404,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7418,9 +7434,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>367</v>
@@ -7436,7 +7452,7 @@
         <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7453,7 +7469,9 @@
       <c r="L48" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M48" s="2"/>
+      <c r="M48" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7502,7 +7520,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7534,10 +7552,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>80</v>
@@ -7559,13 +7577,13 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7616,7 +7634,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7646,12 +7664,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>80</v>
@@ -7664,7 +7682,7 @@
         <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7673,17 +7691,15 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M50" t="s" s="2">
         <v>379</v>
       </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7732,7 +7748,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7741,7 +7757,7 @@
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>137</v>
@@ -7750,24 +7766,24 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>80</v>
@@ -7780,7 +7796,7 @@
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7789,16 +7805,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7848,7 +7864,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7866,7 +7882,7 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7880,30 +7896,32 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>131</v>
+        <v>387</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>388</v>
@@ -7912,11 +7930,9 @@
         <v>389</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7964,7 +7980,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>390</v>
+        <v>169</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7982,7 +7998,7 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -7994,44 +8010,44 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>394</v>
+        <v>189</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>395</v>
+        <v>190</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8080,39 +8096,39 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8120,13 +8136,13 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8135,19 +8151,19 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8196,10 +8212,10 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>86</v>
@@ -8214,7 +8230,7 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8228,7 +8244,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8239,7 +8255,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8251,19 +8267,19 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>338</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8288,13 +8304,13 @@
         <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>80</v>
@@ -8312,16 +8328,16 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
@@ -8330,7 +8346,7 @@
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>345</v>
+        <v>407</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8342,23 +8358,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8367,19 +8383,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8404,13 +8420,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8434,10 +8450,10 @@
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>98</v>
@@ -8446,7 +8462,7 @@
         <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8460,11 +8476,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8486,15 +8502,17 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8542,7 +8560,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8560,7 +8578,7 @@
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>286</v>
+        <v>419</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -8574,7 +8592,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8582,7 +8600,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>86</v>
@@ -8597,20 +8615,18 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N58" t="s" s="2">
         <v>423</v>
       </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8634,13 +8650,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8658,10 +8674,10 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -8676,7 +8692,7 @@
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>426</v>
+        <v>291</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8688,9 +8704,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8698,34 +8714,34 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -8750,13 +8766,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8774,25 +8790,25 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>432</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8806,7 +8822,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8817,28 +8833,32 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>158</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8886,25 +8906,25 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>160</v>
+        <v>432</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>161</v>
+        <v>431</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8918,18 +8938,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -8941,17 +8961,15 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>435</v>
+        <v>163</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9000,25 +9018,25 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -9032,11 +9050,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9049,26 +9067,24 @@
         <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9116,7 +9132,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>390</v>
+        <v>169</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9134,7 +9150,7 @@
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9148,41 +9164,43 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9230,25 +9248,25 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>426</v>
+        <v>129</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9262,7 +9280,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9285,15 +9303,17 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9318,13 +9338,13 @@
         <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>80</v>
@@ -9342,7 +9362,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>86</v>
@@ -9360,7 +9380,7 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
@@ -9397,13 +9417,13 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9430,13 +9450,13 @@
         <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>342</v>
+        <v>239</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>80</v>
@@ -9463,7 +9483,7 @@
         <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
@@ -9472,7 +9492,7 @@
         <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
@@ -9486,7 +9506,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9494,7 +9514,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>86</v>
@@ -9509,17 +9529,15 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>106</v>
+        <v>453</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>457</v>
-      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
@@ -9544,40 +9562,40 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>456</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH66" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>98</v>
@@ -9586,7 +9604,7 @@
         <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -9598,9 +9616,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9614,7 +9632,7 @@
         <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9623,77 +9641,75 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P67" t="s" s="2">
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="Q67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>98</v>
@@ -9702,7 +9718,7 @@
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -9716,7 +9732,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9739,79 +9755,77 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P68" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="Q68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH68" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="Q68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>98</v>
@@ -9820,7 +9834,7 @@
         <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -9834,7 +9848,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9857,24 +9871,26 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P69" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="O69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9918,7 +9934,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9927,7 +9943,7 @@
         <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>98</v>
@@ -9936,7 +9952,7 @@
         <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -9950,7 +9966,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9973,18 +9989,20 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10032,7 +10050,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10041,7 +10059,7 @@
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
@@ -10050,7 +10068,7 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10059,12 +10077,12 @@
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10087,16 +10105,16 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10146,7 +10164,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10155,7 +10173,7 @@
         <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>98</v>
@@ -10164,7 +10182,7 @@
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10173,12 +10191,12 @@
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10189,7 +10207,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>87</v>
@@ -10201,7 +10219,7 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>347</v>
+        <v>490</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>491</v>
@@ -10260,16 +10278,16 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>98</v>
@@ -10278,7 +10296,7 @@
         <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
@@ -10290,9 +10308,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10303,10 +10321,10 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10315,15 +10333,17 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>158</v>
+        <v>496</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10372,25 +10392,25 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>160</v>
+        <v>495</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>161</v>
+        <v>431</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10404,18 +10424,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
@@ -10427,17 +10447,15 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>435</v>
+        <v>163</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10486,25 +10504,25 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -10518,11 +10536,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10535,26 +10553,24 @@
         <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10602,7 +10618,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>390</v>
+        <v>169</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10620,7 +10636,7 @@
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -10634,41 +10650,43 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>498</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>499</v>
+        <v>393</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>500</v>
+        <v>394</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10692,13 +10710,13 @@
         <v>80</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>451</v>
+        <v>80</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
@@ -10716,25 +10734,25 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>497</v>
+        <v>395</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>426</v>
+        <v>129</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -10756,7 +10774,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>86</v>
@@ -10771,24 +10789,22 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>241</v>
+        <v>503</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P77" t="s" s="2">
-        <v>506</v>
-      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>80</v>
       </c>
@@ -10808,13 +10824,13 @@
         <v>80</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>80</v>
@@ -10835,7 +10851,7 @@
         <v>502</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>86</v>
@@ -10850,7 +10866,7 @@
         <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
@@ -10862,7 +10878,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>507</v>
       </c>
@@ -10875,10 +10891,10 @@
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -10887,7 +10903,7 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>347</v>
+        <v>246</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>508</v>
@@ -10898,13 +10914,13 @@
       <c r="M78" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P78" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="O78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>80</v>
       </c>
@@ -10954,10 +10970,10 @@
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>512</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>98</v>
@@ -10966,7 +10982,7 @@
         <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
@@ -10978,9 +10994,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10991,10 +11007,10 @@
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11003,16 +11019,20 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>158</v>
+        <v>513</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11060,25 +11080,25 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>160</v>
+        <v>512</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>161</v>
+        <v>431</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
@@ -11092,18 +11112,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -11115,17 +11135,15 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>435</v>
+        <v>163</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11174,25 +11192,25 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>80</v>
@@ -11206,11 +11224,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11223,26 +11241,24 @@
         <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11290,7 +11306,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>390</v>
+        <v>169</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11308,7 +11324,7 @@
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -11320,43 +11336,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H82" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I82" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>517</v>
+        <v>131</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>518</v>
+        <v>393</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>519</v>
+        <v>394</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11380,13 +11398,13 @@
         <v>80</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>451</v>
+        <v>80</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>80</v>
@@ -11404,25 +11422,25 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>516</v>
+        <v>395</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>426</v>
+        <v>129</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -11444,10 +11462,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>87</v>
@@ -11459,20 +11477,18 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N83" t="s" s="2">
         <v>525</v>
       </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11496,13 +11512,13 @@
         <v>80</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>80</v>
@@ -11523,13 +11539,13 @@
         <v>521</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>98</v>
@@ -11538,20 +11554,136 @@
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN83" t="s" s="2">
+      <c r="L84" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN83">
+  <autoFilter ref="A1:AN84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11561,7 +11693,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
